--- a/Sales report GH.xlsx
+++ b/Sales report GH.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\11201307\Documents\Chatbot_HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A84A14-B761-4176-8978-DEB621E331D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34876673-A7CE-4374-BFB4-CE4458575664}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="777" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="777" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="30" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -511,9 +511,6 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
@@ -533,6 +530,9 @@
     </dxf>
     <dxf>
       <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
@@ -33795,8 +33795,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FEB29B94-493F-4402-8F9F-BD11126CE2F8}" name="PivotTable4" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="V5:W8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FD907CD4-8708-4644-88D8-DA03F1905A7B}" name="PivotTable7" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="M5:N18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField numFmtId="165" showAll="0">
       <items count="15">
@@ -33817,7 +33817,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="13">
         <item x="0"/>
         <item x="1"/>
@@ -33838,7 +33838,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0">
       <items count="3">
         <item x="1"/>
@@ -33846,7 +33846,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="3">
         <item x="0"/>
         <item x="1"/>
@@ -33854,7 +33854,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -33881,145 +33881,9 @@
     </pivotField>
   </pivotFields>
   <rowFields count="1">
-    <field x="8"/>
+    <field x="1"/>
   </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC3F0319-5A6C-4F4F-A6C0-FF521E06BC0A}" name="PivotTable6" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="Z5:AC13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="7">
+  <rowItems count="13">
     <i>
       <x/>
     </i>
@@ -34038,248 +33902,40 @@
     <i>
       <x v="5"/>
     </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="8"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
   <dataFields count="1">
-    <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Sum of Lamps" fld="10" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="4">
-    <format dxfId="26">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="25">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="2" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="24">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="3">
-    <chartFormat chart="4" format="11" series="1">
+  <chartFormats count="2">
+    <chartFormat chart="0" format="1" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="13" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="14" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71C018C6-4EE2-45F6-916B-CDD567CC0D46}" name="PivotTable5" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
-  <location ref="AG5:AJ10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="14">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="12">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="1"/>
-        <item x="0"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item x="3"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="0"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="6">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="13"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of Fan " fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Lamps" fld="10" baseField="0" baseItem="0"/>
-    <dataField name="Sum of Cooler" fld="11" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="9">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
           </reference>
         </references>
       </pivotArea>
@@ -34293,51 +33949,6 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="2" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -34345,14 +33956,14 @@
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
     <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E80B5BA-2208-4CA8-AD0E-FE6F6E2F1C7F}" name="PivotTable3" cacheId="30" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E80B5BA-2208-4CA8-AD0E-FE6F6E2F1C7F}" name="PivotTable3" cacheId="0" dataPosition="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
   <location ref="J5:K18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField showAll="0">
@@ -34516,8 +34127,158 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5320547C-24D8-419A-BF4A-0EE37E855738}" name="PivotTable10" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3CFD102-D156-4B9E-8A5D-A73C5475747B}" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A15:A16" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="17">
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Amount" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="7">
+    <format dxfId="14">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5320547C-24D8-419A-BF4A-0EE37E855738}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="B15:D16" firstHeaderRow="0" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="17">
     <pivotField showAll="0">
@@ -34625,16 +34386,16 @@
     <dataField name="Average of Cooler" fld="11" subtotal="average" baseField="0" baseItem="1"/>
   </dataFields>
   <formats count="7">
-    <format dxfId="14">
+    <format dxfId="21">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="13">
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="12">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -34645,13 +34406,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="10">
+    <format dxfId="17">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="16">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="3">
@@ -34758,8 +34519,217 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CC3F0319-5A6C-4F4F-A6C0-FF521E06BC0A}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="Z5:AC13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="25">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="2" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="23">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="4" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="13" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="14" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C5D6119F-F878-4AFC-AC22-08C143D79EA7}" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C5D6119F-F878-4AFC-AC22-08C143D79EA7}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="20">
   <location ref="A5:D12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField numFmtId="165" showAll="0">
@@ -35042,7 +35012,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54BDD720-FDD5-4A39-9759-7FB9DA66D775}" name="PivotTable2" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{54BDD720-FDD5-4A39-9759-7FB9DA66D775}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="13">
   <location ref="G5:H18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField numFmtId="165" showAll="0">
@@ -35178,7 +35148,7 @@
     <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="15">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -35203,7 +35173,355 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B916BA35-BD2A-4351-B290-271831151902}" name="PivotTable8" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FEB29B94-493F-4402-8F9F-BD11126CE2F8}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="V5:W8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField numFmtId="165" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{71C018C6-4EE2-45F6-916B-CDD567CC0D46}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
+  <location ref="AG5:AJ10" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="17">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="14">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="12">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="0"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="13"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Fan " fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Lamps" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Cooler" fld="11" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="9">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B916BA35-BD2A-4351-B290-271831151902}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="P5:Q18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="17">
     <pivotField numFmtId="165" showAll="0">
@@ -35349,324 +35667,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FD907CD4-8708-4644-88D8-DA03F1905A7B}" name="PivotTable7" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="M5:N18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="17">
-    <pivotField numFmtId="165" showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="164" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Lamps" fld="10" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C3CFD102-D156-4B9E-8A5D-A73C5475747B}" name="PivotTable9" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A15:A16" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="17">
-    <pivotField showAll="0">
-      <items count="15">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Amount" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
-  </dataFields>
-  <formats count="7">
-    <format dxfId="22">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -36726,7 +36726,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC5"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -36898,7 +36898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F8A6B6-271D-422D-BD75-5642BA18B916}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
